--- a/Чек-Лист.xlsx
+++ b/Чек-Лист.xlsx
@@ -217,13 +217,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -244,9 +241,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,182 +548,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>45419</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="7" t="s">
+    <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="17" spans="4:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
